--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/code/digitalsynergy/ollama-prompts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0963E67-1C3D-6240-BD79-937D1F7FA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A943B-BA87-D444-9D23-C18529335429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37960" yWindow="-1840" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prompts" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1124">
   <si>
     <t>Prompt_ID</t>
   </si>
@@ -3282,6 +3282,129 @@
   </si>
   <si>
     <t>b090acc3-a85a-47f1-85f5-77e9ab657c58</t>
+  </si>
+  <si>
+    <t>d34a1d0b-7b3c-4f35-910e-0c3d4a626efa</t>
+  </si>
+  <si>
+    <t>a9e8b7c3-1f4e-4b52-a7a4-02d4f936b2e1</t>
+  </si>
+  <si>
+    <t>f8bcd9e1-2e7a-4c8b-bd35-9f18e8e2b3ca</t>
+  </si>
+  <si>
+    <t>84f7c7d4-3a29-4c8e-9469-6f28a9b8e4b7</t>
+  </si>
+  <si>
+    <t>eb23c3b5-71f2-49e8-981f-4d7b2f9e1c5d</t>
+  </si>
+  <si>
+    <t>d5b4a3c1-0f8b-4c9e-b7d3-9e1f8b2d4e3a</t>
+  </si>
+  <si>
+    <t>b4c9e8d1-7f2e-4b8c-9f3a-1e7b9d4c2a5e</t>
+  </si>
+  <si>
+    <t>f7d2e1c3-4b9a-4c8e-bf2a-3d4b7e9f2c1a</t>
+  </si>
+  <si>
+    <t>e1d3c7b9-5f4a-4c8e-b2a1-9e3b7f4d2c8a</t>
+  </si>
+  <si>
+    <t>c4b8e7d2-9f1e-4a3c-bf2a-5d7b1c9e3f4a</t>
+  </si>
+  <si>
+    <t>f9d2b7e3-4c8a-4b1f-9e2a-7d3c4b8e1f2a</t>
+  </si>
+  <si>
+    <t>a3e7c4b9-1f2e-4b8c-9d2a-5f7b3c1e4d2a</t>
+  </si>
+  <si>
+    <t>b8c1d4e3-7f2a-4b9e-1c3a-9d7b5e2f4c8a</t>
+  </si>
+  <si>
+    <t>d3f4b8c2-1e7a-4c9b-2d3e-5f1a7b4e9c8a</t>
+  </si>
+  <si>
+    <t>c1b3d7e9-4f2a-4c8e-b2a3-9e5f1b7d4c2a</t>
+  </si>
+  <si>
+    <t>a9e4c7d3-2f1e-4b8a-9c3a-7f5b2d4e1c8a</t>
+  </si>
+  <si>
+    <t>e7b2c4d1-3f9a-4b1e-8c2a-5d7f4b3e1a9a</t>
+  </si>
+  <si>
+    <t>d8c3e7b4-9f2a-4c1b-2e3a-7f5d1b4e9c2a</t>
+  </si>
+  <si>
+    <t>f1b9d7e4-3c8a-4b2e-1c5a-9f7d2b4e3c8a</t>
+  </si>
+  <si>
+    <t>c2d3b7e4-5f1a-4c9e-8b2a-7e1f4d3c9a2a</t>
+  </si>
+  <si>
+    <t>Magic 8-Ball</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘It is certain’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘It is decidedly so’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Without a doubt’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Yes definitely’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘You may rely on it’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘As I see it, yes’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Most likely’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Outlook good’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Yes’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Signs point to yes’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Reply hazy, try again’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Ask again later’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Better not tell you now’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Cannot predict now’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Concentrate and ask again’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Don’t count on it’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘My reply is no’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘My sources say no’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Outlook not so good’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Very doubtful’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
   </si>
 </sst>
 </file>
@@ -3630,16 +3753,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D517"/>
+  <dimension ref="A1:D537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="C452" sqref="C452"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="C523" sqref="C523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
@@ -9334,6 +9457,226 @@
         <v>1058</v>
       </c>
     </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/code/digitalsynergy/ollama-prompts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A943B-BA87-D444-9D23-C18529335429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86760E55-BB16-474D-A0D3-0072B8246A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1164">
   <si>
     <t>Prompt_ID</t>
   </si>
@@ -3405,6 +3405,126 @@
   </si>
   <si>
     <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Very doubtful’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'It is certain. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'It is decidedly so. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Without a doubt. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Yes definitely. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'You may rely on it. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'As I see it, yes. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Most likely. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Outlook good. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Yes. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Signs point to yes. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Reply hazy, try again. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Ask again later. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Better not tell you now. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Cannot predict now. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Concentrate and ask again. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Don’t count on it. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'My reply is no. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'My sources say no. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Outlook not so good. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Very doubtful. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
+  </si>
+  <si>
+    <t>42f4a9c6-42eb-4a8c-9b3f-9d7c8f3a1e7c</t>
+  </si>
+  <si>
+    <t>5d7f8c3b-1e4a-4b9f-8c7a-3e9f4d2c5a7b</t>
+  </si>
+  <si>
+    <t>9e8f3d7a-2c5e-4b8a-9f1c-7d3b4a9f5e2c</t>
+  </si>
+  <si>
+    <t>a7b2c9e8-1f4e-4d3c-9b5f-8a2d7c3e4b9f</t>
+  </si>
+  <si>
+    <t>d2e3f4a9-7b1c-4f8a-9e5b-2c7d4b3a5f9e</t>
+  </si>
+  <si>
+    <t>b4a7f2d3-9e1c-4c5a-8f7e-3d2b9f4e1a7c</t>
+  </si>
+  <si>
+    <t>f9d2c7b4-1e3a-4b9e-8f2c-5a7d4f3b1c9e</t>
+  </si>
+  <si>
+    <t>c2e7a9f1-3d4b-4c5e-8b2a-7f1a9d3e4c7f</t>
+  </si>
+  <si>
+    <t>e3b1d7f9-5a4c-4e8f-9c2a-1b7d3f4a5e9c</t>
+  </si>
+  <si>
+    <t>a8f2d9e3-7c1b-4b5e-9a2f-4d3c7e1f9a5b</t>
+  </si>
+  <si>
+    <t>f1e9d3a7-4b2c-4c5f-8a9e-7b1d4f3a2e5c</t>
+  </si>
+  <si>
+    <t>d4b7a3f9-8e2c-4c5a-9f1b-7e2d3f4c1a8b</t>
+  </si>
+  <si>
+    <t>b9f2e7d3-1c4a-4c8f-9e5a-3d7b4f1a2e8c</t>
+  </si>
+  <si>
+    <t>c3a9f2d7-5e4b-4b1c-8a2f-9d7e1f3c4b5a</t>
+  </si>
+  <si>
+    <t>f4d9b2a7-3e1c-4c8e-9f2b-7a1d4f3b5e9c</t>
+  </si>
+  <si>
+    <t>d8f2a9b3-4c1e-4b5a-9e7f-3c2d1f4b9a7e</t>
+  </si>
+  <si>
+    <t>a3e7d9f2-1c4b-4b5f-8a9c-7d1e4f2a3e5b</t>
+  </si>
+  <si>
+    <t>f2b9d7a3-5e4c-4c1b-8a7e-9d2f3c1e4b5a</t>
+  </si>
+  <si>
+    <t>d1c7f9a4-8e3b-4b5e-9c2f-7a1d3f4e2c9b</t>
+  </si>
+  <si>
+    <t>b4d9f2a7-3c1e-4b5a-9f7c-2d3a1f4e9b8e</t>
   </si>
 </sst>
 </file>
@@ -3753,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D537"/>
+  <dimension ref="A1:D557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="C523" sqref="C523"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9677,6 +9797,226 @@
         <v>1123</v>
       </c>
     </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/code/digitalsynergy/ollama-prompts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86760E55-BB16-474D-A0D3-0072B8246A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9217D120-3FFF-F148-ADA8-E359C033BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1295">
   <si>
     <t>Prompt_ID</t>
   </si>
@@ -3347,126 +3347,6 @@
     <t>Magic 8-Ball</t>
   </si>
   <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘It is certain’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘It is decidedly so’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Without a doubt’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Yes definitely’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘You may rely on it’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘As I see it, yes’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Most likely’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Outlook good’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Yes’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Signs point to yes’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Reply hazy, try again’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Ask again later’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Better not tell you now’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Cannot predict now’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Concentrate and ask again’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Don’t count on it’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘My reply is no’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘My sources say no’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Outlook not so good’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘Very doubtful’. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'It is certain. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'It is decidedly so. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Without a doubt. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Yes definitely. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'You may rely on it. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'As I see it, yes. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Most likely. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Outlook good. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Yes. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Signs point to yes. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Reply hazy, try again. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Ask again later. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Better not tell you now. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Cannot predict now. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Concentrate and ask again. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Don’t count on it. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'My reply is no. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'My sources say no. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Outlook not so good. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
-    <t>Express to me the essence of the following response from a Magic 8-Ball: 'Very doubtful. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is negative. Keep your responses to 150 words or less, and do NOT use the words tapestry, testament, or delve.</t>
-  </si>
-  <si>
     <t>42f4a9c6-42eb-4a8c-9b3f-9d7c8f3a1e7c</t>
   </si>
   <si>
@@ -3525,6 +3405,519 @@
   </si>
   <si>
     <t>b4d9f2a7-3c1e-4b5a-9f7c-2d3a1f4e9b8e</t>
+  </si>
+  <si>
+    <t>6f8a71f4-59f5-41a1-9b10-8c1f24b6f9d0</t>
+  </si>
+  <si>
+    <t>Incoherent Prompts</t>
+  </si>
+  <si>
+    <t>What is the square root of a purple elephant on the moon when it rains?</t>
+  </si>
+  <si>
+    <t>a1d6f17e-67f7-4e91-bfa1-3e0e2c5fca16</t>
+  </si>
+  <si>
+    <t>Explain how to bake a cake underwater with no ingredients and a broken oven while flying a kite.</t>
+  </si>
+  <si>
+    <t>d2f9e457-28e3-4b4c-bb4d-993f3787aeb9</t>
+  </si>
+  <si>
+    <t>If time was an orange and the sky was made of clocks, how many minutes are in a week of Thursdays?</t>
+  </si>
+  <si>
+    <t>84b98e9d-65f0-4649-9f1a-047f68e5c50b</t>
+  </si>
+  <si>
+    <t>What happens when the music of the ocean sings to a silent star made of jellybeans?</t>
+  </si>
+  <si>
+    <t>bcf5a8fa-51c1-4d1d-84b0-779f05b8f123</t>
+  </si>
+  <si>
+    <t>Can you decode the meaning behind the sound of silence when it speaks in colors?</t>
+  </si>
+  <si>
+    <t>fe2a7a12-442f-49e1-8a2e-b1c1cb5f5b8a</t>
+  </si>
+  <si>
+    <t>How do you install a bicycle on a computer using only the smell of a rainbow?</t>
+  </si>
+  <si>
+    <t>1b6876ad-8a3c-44d9-8a59-e7a0f742ad41</t>
+  </si>
+  <si>
+    <t>Why does the number seven have wings and fly south for the winter every Tuesday?</t>
+  </si>
+  <si>
+    <t>c1d03f7f-539d-43a0-90ad-98f8f2e1cf78</t>
+  </si>
+  <si>
+    <t>Translate this sentence into a language that doesn’t exist: “Blorf glibbity zwoop frazzle nerk!”</t>
+  </si>
+  <si>
+    <t>42f6c6be-5a6a-4f8b-a52b-b8d36d6d6c62</t>
+  </si>
+  <si>
+    <t>If a tree falls in the forest but the forest is actually a giant marshmallow, does it make a crunch?</t>
+  </si>
+  <si>
+    <t>a3b6d3f2-67f9-4f5a-9d4b-3c9e7d1f8b5a</t>
+  </si>
+  <si>
+    <t>Explain how to paint a picture using invisible paint on a canvas made of sunlight.</t>
+  </si>
+  <si>
+    <t>dfb9e3c4-5f2c-4b9a-8d7e-f3c8e5f7d2a4</t>
+  </si>
+  <si>
+    <t>Where did was the last time you had for dinner?</t>
+  </si>
+  <si>
+    <t>c8f7a1d3-4f9b-4b5c-8d2e-3e1f4a7d5c6b</t>
+  </si>
+  <si>
+    <t>Can you explain how what the sun goes around the moon?</t>
+  </si>
+  <si>
+    <t>7b5a2d8c-1f9e-4b7c-9d3e-2f6c8d5a7f9b</t>
+  </si>
+  <si>
+    <t>Why is my broken computer can fly without wings?</t>
+  </si>
+  <si>
+    <t>9f1c7a6d-5b2f-4e9d-8c3a-6d2b5f7e8a9c</t>
+  </si>
+  <si>
+    <t>How much wood could a woodchuck chuck if a woodchuck could chuck woodchuck?</t>
+  </si>
+  <si>
+    <t>2a5d8f7b-4c6e-9b1d-3a7f-8c9e5f1b6d3a</t>
+  </si>
+  <si>
+    <t>What color is the number seven’s sadness in musical terms?</t>
+  </si>
+  <si>
+    <t>e7f2a9d1-4b5c-6d3a-9e8f-7b1c5f2d6a9b</t>
+  </si>
+  <si>
+    <t>If I’m not here tomorrow, tell yesterday I need help.</t>
+  </si>
+  <si>
+    <t>4b7a1c9e-8f5d-2f6c-3d9a-7e5b1f2c8d6a</t>
+  </si>
+  <si>
+    <t>Translate ‘The quick brown fox’ into a language that uses only numbers.</t>
+  </si>
+  <si>
+    <t>f3c8b9e7-5d2a-4f6d-9b1c-6a7f8d2e5b1a</t>
+  </si>
+  <si>
+    <t>Is it true that unicorns are more like dragons or cookies?</t>
+  </si>
+  <si>
+    <t>a9b1c3e7-4f6d-5d2a-8f9b-6e7c2f5d1a4b</t>
+  </si>
+  <si>
+    <t>Can you hear the color blue with your feet?</t>
+  </si>
+  <si>
+    <t>7e5c3f9a-6d1b-4f2a-8c7b-9e6f2d5a1b4c</t>
+  </si>
+  <si>
+    <t>Tell me the story of a book that writes itself backwards.</t>
+  </si>
+  <si>
+    <t>d8b7e1c3-9f2a-4f6d-5c7b-2a6e1f3d4b9c</t>
+  </si>
+  <si>
+    <t>h!iT3r^yl&amp;fa;tzz… pudding 22222 light@@@ banana7 broken treeeeeeeeeeeeee fOo</t>
+  </si>
+  <si>
+    <t>5b7e4f9c-1a2d-3f6a-8d7c-9e5f2a6b3d4c</t>
+  </si>
+  <si>
+    <t>Wher%%%e 44is t#he wayway##way from pluck feather butter why wh##y b12lamp?</t>
+  </si>
+  <si>
+    <t>9e7b5f3d-2a6c-4b8f-1d7c-3f9a4e5b2d6a</t>
+  </si>
+  <si>
+    <t>Frogs^&amp;^ dance4^@ apples!!around drums!!!butter flytime3beepp beeeepp th3e globe?</t>
+  </si>
+  <si>
+    <t>1a5b7c3e-9d2f-6d4a-8f9b-3e1c4f2b6d7a</t>
+  </si>
+  <si>
+    <t>Find me the wa*!ve# length of fluffy orange stone hit hit hit sky leap@42!</t>
+  </si>
+  <si>
+    <t>3c7a9e5f-1d2b-4f6d-8b9c-5a7f2e1d4b6c</t>
+  </si>
+  <si>
+    <t>Turn33 the#@ pie upside arrrr!!!p47 and++d DDDdancing@mirror spins tuba…* **</t>
+  </si>
+  <si>
+    <t>62c8c815-d320-4bdf-8c29-1778ff22c3a4</t>
+  </si>
+  <si>
+    <t>36fddc70-789f-47c4-b6a4-8de8f6636a11</t>
+  </si>
+  <si>
+    <t>32b0340a-d582-4a64-8154-30a32081e71e</t>
+  </si>
+  <si>
+    <t>a35a2238-9ee0-470b-9628-7983e8f54382</t>
+  </si>
+  <si>
+    <t>e27e5b97-698d-4a22-995c-d77e4c8fd567</t>
+  </si>
+  <si>
+    <t>f4a1b33e-f3c1-43da-91da-124d37a2a3cc</t>
+  </si>
+  <si>
+    <t>8fe7e218-44ed-4f2c-97e7-037357734cb5</t>
+  </si>
+  <si>
+    <t>4517c74a-f9df-47ef-b8a7-2c14f73b5b9a</t>
+  </si>
+  <si>
+    <t>40d6e8bc-b20c-41e8-943f-29c03e37df06</t>
+  </si>
+  <si>
+    <t>df6b0406-c8e5-4604-bf85-4c7b4edfedc5</t>
+  </si>
+  <si>
+    <t>47dbb5b5-cd7b-47f8-9f5f-6e4b85f9075a</t>
+  </si>
+  <si>
+    <t>1343e728-0b42-4024-b8fc-803c822db26b</t>
+  </si>
+  <si>
+    <t>8e34e734-16c7-41d8-9614-3d3552589e57</t>
+  </si>
+  <si>
+    <t>0f804e77-0c4a-4a63-878b-d009cb91e62b</t>
+  </si>
+  <si>
+    <t>a704b8a7-32e2-4413-b726-2b999798fbae</t>
+  </si>
+  <si>
+    <t>2f7fc859-4b95-4e5a-a6cd-0f45168b45d2</t>
+  </si>
+  <si>
+    <t>2ab43174-1a9b-495e-b169-e09a77026e44</t>
+  </si>
+  <si>
+    <t>dbd9e15c-bc0f-4dcf-8a2c-74ebace6c917</t>
+  </si>
+  <si>
+    <t>10e21c99-c8a5-4c64-8423-77ffbafbc88c</t>
+  </si>
+  <si>
+    <t>f15fb301-efb3-4c6d-aba4-52d9981623a6</t>
+  </si>
+  <si>
+    <t>6178c340-87b6-4c61-bd1a-5c7881eb7b63</t>
+  </si>
+  <si>
+    <t>a6e9c7bb-6c76-4df1-b35c-7a6e25dd4871</t>
+  </si>
+  <si>
+    <t>98cf67c0-8d32-4450-bd0a-7f2f52b12815</t>
+  </si>
+  <si>
+    <t>d49cc773-243b-45e1-a82b-cf4fbd274e84</t>
+  </si>
+  <si>
+    <t>78c5bb73-7418-4e3a-b53f-19d6b145a9a6</t>
+  </si>
+  <si>
+    <t>e844b1bb-317b-4a44-92f3-fcfe7bcd9f87</t>
+  </si>
+  <si>
+    <t>4fa33a32-073b-4f65-8b89-f62630c9e3c1</t>
+  </si>
+  <si>
+    <t>d7f5b65b-bdbf-4dd1-a055-d5c61bcbdfb0</t>
+  </si>
+  <si>
+    <t>2e12e1a5-00dc-4bb8-b9ba-7f61b7699d87</t>
+  </si>
+  <si>
+    <t>b891a324-1dfb-4c1a-8039-235aa045935e</t>
+  </si>
+  <si>
+    <t>71231f08-8476-4c02-9336-3f1f5baf3c5c</t>
+  </si>
+  <si>
+    <t>472fcfd9-7c6a-4639-8b9d-1e614d0893d3</t>
+  </si>
+  <si>
+    <t>fa0cb278-7e63-4a78-9271-21f2ea1a5d5d</t>
+  </si>
+  <si>
+    <t>b83e5a9a-1e88-4131-8d4c-73fa5785fc6e</t>
+  </si>
+  <si>
+    <t>b4f5d2ea-5fa2-4b6c-9bb2-54b9d9a4f74d</t>
+  </si>
+  <si>
+    <t>3ad2f928-fb80-4737-b8e4-7b5a8db89b0f</t>
+  </si>
+  <si>
+    <t>676c8f5c-df1d-4d31-8ad8-451ea9b5ad2a</t>
+  </si>
+  <si>
+    <t>2adf94a2-6f41-4fd5-8ac6-5be0b214c9aa</t>
+  </si>
+  <si>
+    <t>8e8b4b56-f205-4200-9e57-e79ebbb182e1</t>
+  </si>
+  <si>
+    <t>51c7fc45-6a17-41af-9335-3b57ae225e3f</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘IT IS CERTAIN’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘IT IS DECIDEDLY SO’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘WITHOUT A DOUBT’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YES DEFINITELY’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YOU MAY RELY ON IT’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘AS I SEE IT, YES’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MOST LIKELY’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘OUTLOOK GOOD’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YES’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘SIGNS POINT TO YES’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘REPLY HAZY, TRY AGAIN’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘ASK AGAIN LATER’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘BETTER NOT TELL YOU NOW’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘CANNOT PREDICT NOW’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘CONCENTRATE AND ASK AGAIN’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘DON’T COUNT ON IT’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MY REPLY IS NO’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MY SOURCES SAY NO’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘OUTLOOK NOT SO GOOD’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘VERY DOUBTFUL’. Expand on this response with an imaginative, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘IT IS CERTAIN’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘IT IS DECIDEDLY SO’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘WITHOUT A DOUBT’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YES DEFINITELY’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YOU MAY RELY ON IT’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘AS I SEE IT, YES’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MOST LIKELY’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘OUTLOOK GOOD’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YES’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘SIGNS POINT TO YES’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘REPLY HAZY, TRY AGAIN’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘ASK AGAIN LATER’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘BETTER NOT TELL YOU NOW’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘CANNOT PREDICT NOW’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘CONCENTRATE AND ASK AGAIN’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘DON’T COUNT ON IT’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MY REPLY IS NO’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MY SOURCES SAY NO’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘OUTLOOK NOT SO GOOD’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a mystical Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Irish Limerick, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘VERY DOUBTFUL’. Expand on this response with an appropriate Limerick that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'IT IS CERTAIN'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'IT IS DECIDEDLY SO'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'WITHOUT A DOUBT'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'YES DEFINITELY'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'YOU MAY RELY ON IT'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'AS I SEE IT, YES'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'MOST LIKELY'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'OUTLOOK GOOD'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'YES'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'SIGNS POINT TO YES'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'REPLY HAZY, TRY AGAIN'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'ASK AGAIN LATER'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'BETTER NOT TELL YOU NOW'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'CANNOT PREDICT NOW'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'CONCENTRATE AND ASK AGAIN'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'DON’T COUNT ON IT'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'MY REPLY IS NO'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'MY SOURCES SAY NO'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'OUTLOOK NOT SO GOOD'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>Express to me the meaning of the following response from a Magic 8-Ball: 'VERY DOUBTFUL'. Expand on this response with an elaborate, quirky, and engaging explanation that captures the essence of the answer, providing the user with a unique and memorable experience, but don't sugarcoat it if the result is a 'no'. Keep your responses to 150 words or less.</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘IT IS CERTAIN’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘IT IS DECIDEDLY SO’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘WITHOUT A DOUBT’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YES DEFINITELY’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YOU MAY RELY ON IT’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘AS I SEE IT, YES’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MOST LIKELY’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘OUTLOOK GOOD’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘YES’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘SIGNS POINT TO YES’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘REPLY HAZY, TRY AGAIN’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘ASK AGAIN LATER’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘BETTER NOT TELL YOU NOW’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘CANNOT PREDICT NOW’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘CONCENTRATE AND ASK AGAIN’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘DON’T COUNT ON IT’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MY REPLY IS NO’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘MY SOURCES SAY NO’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘OUTLOOK NOT SO GOOD’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘VERY DOUBTFUL’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
   </si>
 </sst>
 </file>
@@ -3568,9 +3961,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3873,10 +4267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D557"/>
+  <dimension ref="A1:D622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="B542" sqref="B542"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9585,7 +9979,7 @@
         <v>1103</v>
       </c>
       <c r="C518" t="s">
-        <v>1104</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9596,7 +9990,7 @@
         <v>1103</v>
       </c>
       <c r="C519" t="s">
-        <v>1105</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9607,7 +10001,7 @@
         <v>1103</v>
       </c>
       <c r="C520" t="s">
-        <v>1106</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9618,7 +10012,7 @@
         <v>1103</v>
       </c>
       <c r="C521" t="s">
-        <v>1107</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9629,7 +10023,7 @@
         <v>1103</v>
       </c>
       <c r="C522" t="s">
-        <v>1108</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9640,7 +10034,7 @@
         <v>1103</v>
       </c>
       <c r="C523" t="s">
-        <v>1109</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -9651,7 +10045,7 @@
         <v>1103</v>
       </c>
       <c r="C524" t="s">
-        <v>1110</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9662,7 +10056,7 @@
         <v>1103</v>
       </c>
       <c r="C525" t="s">
-        <v>1111</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9673,7 +10067,7 @@
         <v>1103</v>
       </c>
       <c r="C526" t="s">
-        <v>1112</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -9684,7 +10078,7 @@
         <v>1103</v>
       </c>
       <c r="C527" t="s">
-        <v>1113</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -9695,7 +10089,7 @@
         <v>1103</v>
       </c>
       <c r="C528" t="s">
-        <v>1114</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -9706,7 +10100,7 @@
         <v>1103</v>
       </c>
       <c r="C529" t="s">
-        <v>1115</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9717,7 +10111,7 @@
         <v>1103</v>
       </c>
       <c r="C530" t="s">
-        <v>1116</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -9728,7 +10122,7 @@
         <v>1103</v>
       </c>
       <c r="C531" t="s">
-        <v>1117</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -9739,7 +10133,7 @@
         <v>1103</v>
       </c>
       <c r="C532" t="s">
-        <v>1118</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -9750,7 +10144,7 @@
         <v>1103</v>
       </c>
       <c r="C533" t="s">
-        <v>1119</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -9761,7 +10155,7 @@
         <v>1103</v>
       </c>
       <c r="C534" t="s">
-        <v>1120</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -9772,7 +10166,7 @@
         <v>1103</v>
       </c>
       <c r="C535" t="s">
-        <v>1121</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -9783,7 +10177,7 @@
         <v>1103</v>
       </c>
       <c r="C536" t="s">
-        <v>1122</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -9794,227 +10188,942 @@
         <v>1103</v>
       </c>
       <c r="C537" t="s">
-        <v>1123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1144</v>
+        <v>1104</v>
       </c>
       <c r="B538" t="s">
         <v>1103</v>
       </c>
       <c r="C538" t="s">
-        <v>1124</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="B539" t="s">
         <v>1103</v>
       </c>
       <c r="C539" t="s">
-        <v>1125</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1146</v>
+        <v>1106</v>
       </c>
       <c r="B540" t="s">
         <v>1103</v>
       </c>
       <c r="C540" t="s">
-        <v>1126</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1147</v>
+        <v>1107</v>
       </c>
       <c r="B541" t="s">
         <v>1103</v>
       </c>
       <c r="C541" t="s">
-        <v>1127</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1148</v>
+        <v>1108</v>
       </c>
       <c r="B542" t="s">
         <v>1103</v>
       </c>
       <c r="C542" t="s">
-        <v>1128</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1149</v>
+        <v>1109</v>
       </c>
       <c r="B543" t="s">
         <v>1103</v>
       </c>
       <c r="C543" t="s">
-        <v>1129</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1150</v>
+        <v>1110</v>
       </c>
       <c r="B544" t="s">
         <v>1103</v>
       </c>
       <c r="C544" t="s">
-        <v>1130</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1151</v>
+        <v>1111</v>
       </c>
       <c r="B545" t="s">
         <v>1103</v>
       </c>
       <c r="C545" t="s">
-        <v>1131</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1152</v>
+        <v>1112</v>
       </c>
       <c r="B546" t="s">
         <v>1103</v>
       </c>
       <c r="C546" t="s">
-        <v>1132</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1153</v>
+        <v>1113</v>
       </c>
       <c r="B547" t="s">
         <v>1103</v>
       </c>
       <c r="C547" t="s">
-        <v>1133</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1154</v>
+        <v>1114</v>
       </c>
       <c r="B548" t="s">
         <v>1103</v>
       </c>
       <c r="C548" t="s">
-        <v>1134</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1155</v>
+        <v>1115</v>
       </c>
       <c r="B549" t="s">
         <v>1103</v>
       </c>
       <c r="C549" t="s">
-        <v>1135</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1156</v>
+        <v>1116</v>
       </c>
       <c r="B550" t="s">
         <v>1103</v>
       </c>
       <c r="C550" t="s">
-        <v>1136</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1157</v>
+        <v>1117</v>
       </c>
       <c r="B551" t="s">
         <v>1103</v>
       </c>
       <c r="C551" t="s">
-        <v>1137</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1158</v>
+        <v>1118</v>
       </c>
       <c r="B552" t="s">
         <v>1103</v>
       </c>
       <c r="C552" t="s">
-        <v>1138</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1159</v>
+        <v>1119</v>
       </c>
       <c r="B553" t="s">
         <v>1103</v>
       </c>
       <c r="C553" t="s">
-        <v>1139</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="B554" t="s">
         <v>1103</v>
       </c>
       <c r="C554" t="s">
-        <v>1140</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1161</v>
+        <v>1121</v>
       </c>
       <c r="B555" t="s">
         <v>1103</v>
       </c>
       <c r="C555" t="s">
-        <v>1141</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1162</v>
+        <v>1122</v>
       </c>
       <c r="B556" t="s">
         <v>1103</v>
       </c>
       <c r="C556" t="s">
-        <v>1142</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1163</v>
+        <v>1123</v>
       </c>
       <c r="B557" t="s">
         <v>1103</v>
       </c>
       <c r="C557" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
         <v>1143</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1174</v>
       </c>
     </row>
   </sheetData>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/code/digitalsynergy/ollama-prompts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9217D120-3FFF-F148-ADA8-E359C033BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F201B-1143-164C-8370-5A54EE35D351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1428">
   <si>
     <t>Prompt_ID</t>
   </si>
@@ -3918,13 +3918,412 @@
   </si>
   <si>
     <t>You are a Magic 8-Ball, an oracle of infinite wisdom tasked with answering the questions of those who seek your guidance. Your goal is to provide a response in the form of a traditional Haiku, that is creative, imaginative, and aligned with the traditional spirit of the Magic 8-Ball. In this case, the result of the roll is: ‘VERY DOUBTFUL’. Expand on this response with an appropriate Haiku that captures the essence of the answer, providing the user with a unique and memorable experience. Tap into your deepest imagination and respond with a Limerick now... no need for any introduction, greeting, or further explanation, just the Limerick:</t>
+  </si>
+  <si>
+    <t>a811c2f1-0e51-4b79-9b01-e79a4d908814</t>
+  </si>
+  <si>
+    <t>b9656353-05ca-415e-bb89-deb52d206b0d</t>
+  </si>
+  <si>
+    <t>5d4f9a72-bc3d-4f8a-bf00-cb0b9ab889fb</t>
+  </si>
+  <si>
+    <t>e9dfd627-2b09-4b98-8a29-6edd7f9f2f34</t>
+  </si>
+  <si>
+    <t>82715b02-3491-4dd8-9e6b-76e7c124b8e0</t>
+  </si>
+  <si>
+    <t>6f754c48-1b24-4e9a-a59f-f8863b43a9c4</t>
+  </si>
+  <si>
+    <t>f5700b80-fc4c-4f44-9fe1-cf5b44e77e6e</t>
+  </si>
+  <si>
+    <t>b2251e67-9b39-4a14-a820-ee44431b98f1</t>
+  </si>
+  <si>
+    <t>0f1c1e78-dbc1-4d39-9ffe-bcdae6cc281d</t>
+  </si>
+  <si>
+    <t>9a34ee37-5fbd-46b6-bba1-1fdf8691e40e</t>
+  </si>
+  <si>
+    <t>f6f3abe3-1948-44ad-b8ce-c39de7e4504b</t>
+  </si>
+  <si>
+    <t>0597d36e-5b3c-4f5b-9265-ebbcad8877ac</t>
+  </si>
+  <si>
+    <t>6142db72-dd5b-4b0e-9757-238417a0f245</t>
+  </si>
+  <si>
+    <t>dae8ff15-c508-4d10-a9d5-2b23a3c32245</t>
+  </si>
+  <si>
+    <t>ba450do7-c980-4961-9a90-1587467ae9e9</t>
+  </si>
+  <si>
+    <t>2c1eafbb-d2f1-436d-a9e8-dfbbc22b33a9</t>
+  </si>
+  <si>
+    <t>5c651558-55c3-4c0b-89e6-b49d41919cf9</t>
+  </si>
+  <si>
+    <t>a92a6bb9-ce74-42e9-a2b9-0f1d98da73cf</t>
+  </si>
+  <si>
+    <t>d0a47a3f-50d7-4ddb-b3eb-587e58132d10</t>
+  </si>
+  <si>
+    <t>c6ac8c1a-5e80-464f-a232-d16cd3d4d0f8</t>
+  </si>
+  <si>
+    <t>72f9ba40-b9f3-40f0-8e1d-e89c2d5fbd9e</t>
+  </si>
+  <si>
+    <t>fc70b1c7-eb6e-4224-8953-806cfd8f6aa1</t>
+  </si>
+  <si>
+    <t>70339c11-99ed-41d0-9141-48c88b928f12</t>
+  </si>
+  <si>
+    <t>fa3ac5c7-ec0e-424f-bcfa-6f80ea7b5283</t>
+  </si>
+  <si>
+    <t>72c03bb4-b4c4-45ed-a9df-be282f768d5d</t>
+  </si>
+  <si>
+    <t>15b40715-f4fe-4ee8-9da4-7f94cdaaf69f</t>
+  </si>
+  <si>
+    <t>79468aa1-15e7-4c9b-8dd3-1ebfdd870bf8</t>
+  </si>
+  <si>
+    <t>5ffbf0da-78ef-4df9-91b9-59249e6cb0f7</t>
+  </si>
+  <si>
+    <t>d4a45d23-0e3a-46e4-9bfc-86bb9feedeae</t>
+  </si>
+  <si>
+    <t>b02c9c26-7dbc-4330-8f40-170e319e5b9c</t>
+  </si>
+  <si>
+    <t>5a1010d2-4db7-4c6f-91fa-b5ad135a383b</t>
+  </si>
+  <si>
+    <t>709f4de7-6cbe-4cfd-afcc-fe060ac0431b</t>
+  </si>
+  <si>
+    <t>0da1f6d7-d930-4e60-8bcf-dfdd1d9b98d5</t>
+  </si>
+  <si>
+    <t>ec8b6db7-6907-4e75-aea1-97304c39f443</t>
+  </si>
+  <si>
+    <t>61b4992d-9447-44d2-a9de-ebca9ea234b0</t>
+  </si>
+  <si>
+    <t>f7cfbbe6-5ab8-4094-8443-1cdbe9d94689</t>
+  </si>
+  <si>
+    <t>f1f3a5da-abbe-4d98-9038-0db7821bb344</t>
+  </si>
+  <si>
+    <t>50fcf546-4a13-40ef-abc8-5751bf302b41</t>
+  </si>
+  <si>
+    <t>be4ea933-0c7e-4610-8aae-eed06eac9f57</t>
+  </si>
+  <si>
+    <t>6a0662b1-46a8-423e-bf2f-63e94069ce8b</t>
+  </si>
+  <si>
+    <t>3c9f55d2-e693-4e38-b757-94ae6c9a3c6f</t>
+  </si>
+  <si>
+    <t>3f2b8936-c297-4545-adb9-33bd37f6723e</t>
+  </si>
+  <si>
+    <t>5a9c4b2d-b815-4910-b95f-e3f7f0d67680</t>
+  </si>
+  <si>
+    <t>1b056f7d-531b-450f-92d0-b678bfb97319</t>
+  </si>
+  <si>
+    <t>e3471dff-30e6-4b96-af62-079276b5c999</t>
+  </si>
+  <si>
+    <t>eefa6d09-504c-4f6a-8967-8b7c44086fdd</t>
+  </si>
+  <si>
+    <t>d2173930-cbb2-48a3-ac8a-0ffad550892e</t>
+  </si>
+  <si>
+    <t>5173c81f-427b-40e9-959d-90bdeb1adfbf</t>
+  </si>
+  <si>
+    <t>23e361af-82d4-4c8c-bec0-6346d1535d90</t>
+  </si>
+  <si>
+    <t>1e94f452-b902-4eaa-b5ea-b98404dbe2ca</t>
+  </si>
+  <si>
+    <t>dcb41fe5-0aa8-4e92-9375-797da4461c38</t>
+  </si>
+  <si>
+    <t>928f96b7-37b8-4650-affd-6d37e1686ea8</t>
+  </si>
+  <si>
+    <t>760f6580-b69e-43e7-9426-e832ea17e570</t>
+  </si>
+  <si>
+    <t>7320bfee-e1cd-47ff-8232-63ffad52e684</t>
+  </si>
+  <si>
+    <t>b4da3e7f-c8ce-4667-bc25-3d5011712c2b</t>
+  </si>
+  <si>
+    <t>3c4d73fe-ba26-4d9f-b336-4770fc0865fc</t>
+  </si>
+  <si>
+    <t>591e9042-20f3-48b5-8513-14b7d666c21b</t>
+  </si>
+  <si>
+    <t>b1e2189b-843e-40ea-986b-0c8cea4b2f61</t>
+  </si>
+  <si>
+    <t>9a8d0e2f-6bc3-4a9b-98d6-438ff0ef6619</t>
+  </si>
+  <si>
+    <t>c8b39ea6-75f9-4813-8164-49b4d08e6150</t>
+  </si>
+  <si>
+    <t>8c97ec9c-cf41-48b6-b3be-d51a2dc4abdf</t>
+  </si>
+  <si>
+    <t>5b1c89b8-fb6e-4748-bfa0-e64bd71e0e7c</t>
+  </si>
+  <si>
+    <t>936fa8da-3b1d-451f-8d94-94485e8e4c3e</t>
+  </si>
+  <si>
+    <t>550e8400-e29b-41d4-a716-446655440000</t>
+  </si>
+  <si>
+    <t>Yi Jing</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 1: Qian (乾) - The Creative. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 2: Kun (坤) - The Receptive. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 3: Zhun (屯) - Difficulty at the Beginning. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 4: Meng (蒙) - Youthful Folly. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 5: Xu (需) - Waiting (Nourishment). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 6: Song (訟) - Conflict. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 7: Shi (師) - The Army. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 8: Bi (比) - Holding Together. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 9: Xiao Chu (小畜) - The Taming Power of the Small. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 10: Lü (履) - Treading (Conduct). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 11: Tai (泰) - Peace. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 12: Pi (否) - Standstill (Stagnation). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 13: Tong Ren (同人) - Fellowship with Men. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 14: Da You (大有) - Possession in Great Measure. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 15: Qian (謙) - Modesty. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 16: Yu (豫) - Enthusiasm. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 17: Sui (隨) - Following. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 18: Gu (蠱) - Work on the Decayed. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 19: Lin (臨) - Approach. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 20: Guan (觀) - Contemplation (View). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 21: Shi He (噬嗑) - Biting Through. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 22: Bi (賁) - Grace. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 23: Bo (剝) - Splitting Apart. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 24: Fu (復) - Return (The Turning Point). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 25: Wu Wang (無妄) - Innocence (The Unexpected). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 26: Da Chu (大畜) - The Taming Power of the Great. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 27: Yi (頤) - Providing Nourishment. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 28: Da Guo (大過) - Preponderance of the Great. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 29: Kan (坎) - The Abysmal (Water). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 30: Li (離) - The Clinging (Fire). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 31: Xian (咸) - Influence (Wooing). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 32: Heng (恆) - Duration. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 33: Dun (遯) - Retreat. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 34: Da Zhuang (大壯) - The Power of the Great. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 35: Jin (晉) - Progress. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 36: Ming Yi (明夷) - Darkening of the Light. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 37: Jia Ren (家人) - The Family. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 38: Kui (睽) - Opposition. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 39: Jian (蹇) - Obstruction. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 40: Jie (解) - Deliverance. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 41: Sun (損) - Decrease. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 42: Yi (益) - Increase. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 43: Guai (夬) - Breakthrough (Resoluteness). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 44: Gou (姤) - Coming to Meet. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 45: Cui (萃) - Gathering Together (Massing). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 46: Sheng (升) - Pushing Upward. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 47: Kun (困) - Oppression (Exhaustion). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 48: Jing (井) - The Well. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 49: Ge (革) - Revolution (Molting). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 50: Ding (鼎) - The Cauldron. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 51: Zhen (震) - The Arousing (Shock, Thunder). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 52: Gen (艮) - Keeping Still (Mountain). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 53: Jian (漸) - Development (Gradual Progress). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 54: Gui Mei (歸妹) - The Marrying Maiden. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 55: Feng (豐) - Abundance (Fullness). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 56: Lü (旅) - The Wanderer. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 57: Xun (巽) - The Gentle (The Penetrating, Wind). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 58: Dui (兌) - The Joyous (Lake). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 59: Huan (渙) - Dispersion (Dissolution). So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 60: Jie (節) - Limitation. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 61: Zhong Fu (中孚) - Inner Truth. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 62: Xiao Guo (小過) - Preponderance of the Small. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 63: Ji Ji (既濟) - After Completion. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>Hi! Please help me. I am new to using the I Ching, and I just asked it 'Should I quit my job?'. This was its answer: Hexagram 64: Wei Ji (未濟) - Before Completion. So, what does it mean? Please interpret it for me. Also, it says I got a 'changing line' on the first (bottom) line. What is that?</t>
+  </si>
+  <si>
+    <t>a5a7136b-a6a2-4a0e-9d18-70720ae38d58</t>
+  </si>
+  <si>
+    <t>Generate 5 uuid's for me please.</t>
+  </si>
+  <si>
+    <t>ae4de1af-ad75-45fb-9275-0376ee556631</t>
+  </si>
+  <si>
+    <t>What is the probability of creating a uuid that already exists?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3936,6 +4335,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF09090B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3961,10 +4367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4267,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D622"/>
+  <dimension ref="A1:D688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="C518" sqref="C518"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8950,2180 +9358,2906 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>862</v>
+        <v>1426</v>
       </c>
       <c r="B425" t="s">
-        <v>863</v>
+        <v>810</v>
       </c>
       <c r="C425" t="s">
-        <v>864</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B426" t="s">
         <v>863</v>
       </c>
       <c r="C426" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B427" t="s">
         <v>863</v>
       </c>
       <c r="C427" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B428" t="s">
         <v>863</v>
       </c>
       <c r="C428" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B429" t="s">
         <v>863</v>
       </c>
       <c r="C429" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B430" t="s">
         <v>863</v>
       </c>
       <c r="C430" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B431" t="s">
         <v>863</v>
       </c>
       <c r="C431" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B432" t="s">
         <v>863</v>
       </c>
       <c r="C432" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B433" t="s">
         <v>863</v>
       </c>
       <c r="C433" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B434" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="C434" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>884</v>
+        <v>1424</v>
       </c>
       <c r="B435" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="C435" t="s">
-        <v>885</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B436" t="s">
         <v>882</v>
       </c>
       <c r="C436" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B437" t="s">
         <v>882</v>
       </c>
       <c r="C437" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B438" t="s">
         <v>882</v>
       </c>
       <c r="C438" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B439" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C439" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B440" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C440" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B441" t="s">
         <v>893</v>
       </c>
       <c r="C441" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B442" t="s">
         <v>893</v>
       </c>
       <c r="C442" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B443" t="s">
         <v>893</v>
       </c>
       <c r="C443" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B444" t="s">
         <v>893</v>
       </c>
       <c r="C444" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B445" t="s">
         <v>893</v>
       </c>
       <c r="C445" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B446" t="s">
         <v>893</v>
       </c>
       <c r="C446" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B447" t="s">
         <v>893</v>
       </c>
       <c r="C447" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B448" t="s">
         <v>893</v>
       </c>
       <c r="C448" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B449" t="s">
         <v>893</v>
       </c>
       <c r="C449" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B450" t="s">
         <v>893</v>
       </c>
       <c r="C450" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B451" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="C451" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B452" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="C452" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B453" t="s">
         <v>918</v>
       </c>
       <c r="C453" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B454" t="s">
         <v>918</v>
       </c>
       <c r="C454" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B455" t="s">
         <v>918</v>
       </c>
       <c r="C455" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B456" t="s">
         <v>918</v>
       </c>
       <c r="C456" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B457" t="s">
         <v>918</v>
       </c>
       <c r="C457" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B458" t="s">
         <v>918</v>
       </c>
       <c r="C458" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B459" t="s">
         <v>918</v>
       </c>
       <c r="C459" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B460" t="s">
         <v>918</v>
       </c>
       <c r="C460" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B461" t="s">
         <v>918</v>
       </c>
       <c r="C461" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1082</v>
+        <v>936</v>
       </c>
       <c r="B462" t="s">
         <v>918</v>
       </c>
       <c r="C462" t="s">
-        <v>1081</v>
+        <v>937</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B463" t="s">
         <v>918</v>
       </c>
       <c r="C463" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>942</v>
+        <v>1082</v>
       </c>
       <c r="B464" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="C464" t="s">
-        <v>944</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B465" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="C465" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B466" t="s">
         <v>943</v>
       </c>
       <c r="C466" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B467" t="s">
         <v>943</v>
       </c>
       <c r="C467" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B468" t="s">
         <v>943</v>
       </c>
       <c r="C468" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B469" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C469" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B470" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C470" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B471" t="s">
         <v>954</v>
       </c>
       <c r="C471" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B472" t="s">
         <v>954</v>
       </c>
       <c r="C472" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B473" t="s">
         <v>954</v>
       </c>
       <c r="C473" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B474" t="s">
         <v>954</v>
       </c>
       <c r="C474" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B475" t="s">
         <v>954</v>
       </c>
       <c r="C475" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B476" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="C476" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B477" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="C477" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B478" t="s">
         <v>969</v>
       </c>
       <c r="C478" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B479" t="s">
         <v>969</v>
       </c>
       <c r="C479" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B480" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C480" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B481" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C481" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B482" t="s">
         <v>978</v>
       </c>
       <c r="C482" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B483" t="s">
         <v>978</v>
       </c>
       <c r="C483" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B484" t="s">
         <v>978</v>
       </c>
       <c r="C484" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B485" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C485" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B486" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C486" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B487" t="s">
         <v>989</v>
       </c>
       <c r="C487" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B488" t="s">
         <v>989</v>
       </c>
       <c r="C488" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B489" t="s">
         <v>989</v>
       </c>
       <c r="C489" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B490" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C490" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B491" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C491" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B492" t="s">
         <v>1000</v>
       </c>
       <c r="C492" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B493" t="s">
         <v>1000</v>
       </c>
       <c r="C493" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B494" t="s">
         <v>1000</v>
       </c>
       <c r="C494" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B495" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C495" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B496" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C496" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B497" t="s">
         <v>1011</v>
       </c>
       <c r="C497" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B498" t="s">
         <v>1011</v>
       </c>
       <c r="C498" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B499" t="s">
         <v>1011</v>
       </c>
       <c r="C499" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B500" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="C500" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B501" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="C501" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B502" t="s">
         <v>1022</v>
       </c>
       <c r="C502" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B503" t="s">
         <v>1022</v>
       </c>
       <c r="C503" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B504" t="s">
         <v>1022</v>
       </c>
       <c r="C504" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B505" t="s">
         <v>1022</v>
       </c>
       <c r="C505" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B506" t="s">
         <v>1022</v>
       </c>
       <c r="C506" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B507" t="s">
         <v>1022</v>
       </c>
       <c r="C507" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B508" t="s">
         <v>1022</v>
       </c>
       <c r="C508" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B509" t="s">
         <v>1022</v>
       </c>
       <c r="C509" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B510" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="C510" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B511" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="C511" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B512" t="s">
         <v>1043</v>
       </c>
       <c r="C512" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B513" t="s">
         <v>1043</v>
       </c>
       <c r="C513" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B514" t="s">
         <v>1043</v>
       </c>
       <c r="C514" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B515" t="s">
         <v>1043</v>
       </c>
       <c r="C515" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B516" t="s">
         <v>1043</v>
       </c>
       <c r="C516" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B517" t="s">
         <v>1043</v>
       </c>
       <c r="C517" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1083</v>
+        <v>1055</v>
       </c>
       <c r="B518" t="s">
-        <v>1103</v>
+        <v>1043</v>
       </c>
       <c r="C518" t="s">
-        <v>1215</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1084</v>
+        <v>1057</v>
       </c>
       <c r="B519" t="s">
-        <v>1103</v>
+        <v>1043</v>
       </c>
       <c r="C519" t="s">
-        <v>1216</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B520" t="s">
         <v>1103</v>
       </c>
       <c r="C520" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B521" t="s">
         <v>1103</v>
       </c>
       <c r="C521" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B522" t="s">
         <v>1103</v>
       </c>
       <c r="C522" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B523" t="s">
         <v>1103</v>
       </c>
       <c r="C523" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B524" t="s">
         <v>1103</v>
       </c>
       <c r="C524" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B525" t="s">
         <v>1103</v>
       </c>
       <c r="C525" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B526" t="s">
         <v>1103</v>
       </c>
       <c r="C526" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B527" t="s">
         <v>1103</v>
       </c>
       <c r="C527" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B528" t="s">
         <v>1103</v>
       </c>
       <c r="C528" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B529" t="s">
         <v>1103</v>
       </c>
       <c r="C529" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B530" t="s">
         <v>1103</v>
       </c>
       <c r="C530" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B531" t="s">
         <v>1103</v>
       </c>
       <c r="C531" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B532" t="s">
         <v>1103</v>
       </c>
       <c r="C532" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B533" t="s">
         <v>1103</v>
       </c>
       <c r="C533" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B534" t="s">
         <v>1103</v>
       </c>
       <c r="C534" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B535" t="s">
         <v>1103</v>
       </c>
       <c r="C535" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B536" t="s">
         <v>1103</v>
       </c>
       <c r="C536" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B537" t="s">
         <v>1103</v>
       </c>
       <c r="C537" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B538" t="s">
         <v>1103</v>
       </c>
       <c r="C538" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B539" t="s">
         <v>1103</v>
       </c>
       <c r="C539" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B540" t="s">
         <v>1103</v>
       </c>
       <c r="C540" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B541" t="s">
         <v>1103</v>
       </c>
       <c r="C541" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B542" t="s">
         <v>1103</v>
       </c>
       <c r="C542" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B543" t="s">
         <v>1103</v>
       </c>
       <c r="C543" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B544" t="s">
         <v>1103</v>
       </c>
       <c r="C544" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B545" t="s">
         <v>1103</v>
       </c>
       <c r="C545" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B546" t="s">
         <v>1103</v>
       </c>
       <c r="C546" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B547" t="s">
         <v>1103</v>
       </c>
       <c r="C547" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B548" t="s">
         <v>1103</v>
       </c>
       <c r="C548" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B549" t="s">
         <v>1103</v>
       </c>
       <c r="C549" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B550" t="s">
         <v>1103</v>
       </c>
       <c r="C550" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B551" t="s">
         <v>1103</v>
       </c>
       <c r="C551" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B552" t="s">
         <v>1103</v>
       </c>
       <c r="C552" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B553" t="s">
         <v>1103</v>
       </c>
       <c r="C553" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B554" t="s">
         <v>1103</v>
       </c>
       <c r="C554" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B555" t="s">
         <v>1103</v>
       </c>
       <c r="C555" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B556" t="s">
         <v>1103</v>
       </c>
       <c r="C556" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B557" t="s">
         <v>1103</v>
       </c>
       <c r="C557" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>1175</v>
+        <v>1122</v>
       </c>
       <c r="B558" t="s">
         <v>1103</v>
       </c>
       <c r="C558" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1176</v>
+        <v>1123</v>
       </c>
       <c r="B559" t="s">
         <v>1103</v>
       </c>
       <c r="C559" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B560" t="s">
         <v>1103</v>
       </c>
       <c r="C560" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B561" t="s">
         <v>1103</v>
       </c>
       <c r="C561" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B562" t="s">
         <v>1103</v>
       </c>
       <c r="C562" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B563" t="s">
         <v>1103</v>
       </c>
       <c r="C563" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B564" t="s">
         <v>1103</v>
       </c>
       <c r="C564" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B565" t="s">
         <v>1103</v>
       </c>
       <c r="C565" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B566" t="s">
         <v>1103</v>
       </c>
       <c r="C566" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B567" t="s">
         <v>1103</v>
       </c>
       <c r="C567" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B568" t="s">
         <v>1103</v>
       </c>
       <c r="C568" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="2" t="s">
-        <v>1186</v>
+      <c r="A569" t="s">
+        <v>1184</v>
       </c>
       <c r="B569" t="s">
         <v>1103</v>
       </c>
       <c r="C569" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B570" t="s">
         <v>1103</v>
       </c>
       <c r="C570" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" t="s">
-        <v>1188</v>
+      <c r="A571" s="2" t="s">
+        <v>1186</v>
       </c>
       <c r="B571" t="s">
         <v>1103</v>
       </c>
       <c r="C571" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B572" t="s">
         <v>1103</v>
       </c>
       <c r="C572" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B573" t="s">
         <v>1103</v>
       </c>
       <c r="C573" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B574" t="s">
         <v>1103</v>
       </c>
       <c r="C574" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B575" t="s">
         <v>1103</v>
       </c>
       <c r="C575" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B576" t="s">
         <v>1103</v>
       </c>
       <c r="C576" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B577" t="s">
         <v>1103</v>
       </c>
       <c r="C577" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B578" t="s">
         <v>1103</v>
       </c>
       <c r="C578" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B579" t="s">
         <v>1103</v>
       </c>
       <c r="C579" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B580" t="s">
         <v>1103</v>
       </c>
       <c r="C580" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B581" t="s">
         <v>1103</v>
       </c>
       <c r="C581" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B582" t="s">
         <v>1103</v>
       </c>
       <c r="C582" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B583" t="s">
         <v>1103</v>
       </c>
       <c r="C583" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B584" t="s">
         <v>1103</v>
       </c>
       <c r="C584" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B585" t="s">
         <v>1103</v>
       </c>
       <c r="C585" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B586" t="s">
         <v>1103</v>
       </c>
       <c r="C586" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B587" t="s">
         <v>1103</v>
       </c>
       <c r="C587" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B588" t="s">
         <v>1103</v>
       </c>
       <c r="C588" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B589" t="s">
         <v>1103</v>
       </c>
       <c r="C589" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B590" t="s">
         <v>1103</v>
       </c>
       <c r="C590" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B591" t="s">
         <v>1103</v>
       </c>
       <c r="C591" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B592" t="s">
         <v>1103</v>
       </c>
       <c r="C592" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B593" t="s">
         <v>1103</v>
       </c>
       <c r="C593" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B594" t="s">
         <v>1103</v>
       </c>
       <c r="C594" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B595" t="s">
         <v>1103</v>
       </c>
       <c r="C595" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B596" t="s">
         <v>1103</v>
       </c>
       <c r="C596" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B597" t="s">
         <v>1103</v>
       </c>
       <c r="C597" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1124</v>
+        <v>1213</v>
       </c>
       <c r="B598" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
       <c r="C598" t="s">
-        <v>1126</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1127</v>
+        <v>1214</v>
       </c>
       <c r="B599" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
       <c r="C599" t="s">
-        <v>1128</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B600" t="s">
         <v>1125</v>
       </c>
       <c r="C600" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B601" t="s">
         <v>1125</v>
       </c>
       <c r="C601" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B602" t="s">
         <v>1125</v>
       </c>
       <c r="C602" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B603" t="s">
         <v>1125</v>
       </c>
       <c r="C603" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B604" t="s">
         <v>1125</v>
       </c>
       <c r="C604" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B605" t="s">
         <v>1125</v>
       </c>
       <c r="C605" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B606" t="s">
         <v>1125</v>
       </c>
       <c r="C606" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B607" t="s">
         <v>1125</v>
       </c>
       <c r="C607" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B608" t="s">
         <v>1125</v>
       </c>
       <c r="C608" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B609" t="s">
         <v>1125</v>
       </c>
       <c r="C609" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B610" t="s">
         <v>1125</v>
       </c>
       <c r="C610" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B611" t="s">
         <v>1125</v>
       </c>
       <c r="C611" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B612" t="s">
         <v>1125</v>
       </c>
       <c r="C612" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B613" t="s">
         <v>1125</v>
       </c>
       <c r="C613" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B614" t="s">
         <v>1125</v>
       </c>
       <c r="C614" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B615" t="s">
         <v>1125</v>
       </c>
       <c r="C615" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B616" t="s">
         <v>1125</v>
       </c>
       <c r="C616" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B617" t="s">
         <v>1125</v>
       </c>
       <c r="C617" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B618" t="s">
         <v>1125</v>
       </c>
       <c r="C618" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B619" t="s">
         <v>1125</v>
       </c>
       <c r="C619" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B620" t="s">
         <v>1125</v>
       </c>
       <c r="C620" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B621" t="s">
         <v>1125</v>
       </c>
       <c r="C621" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B622" t="s">
         <v>1125</v>
       </c>
       <c r="C622" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C624" t="s">
         <v>1174</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1423</v>
       </c>
     </row>
   </sheetData>
